--- a/biology/Botanique/Square_Henri-Cadiou/Square_Henri-Cadiou.xlsx
+++ b/biology/Botanique/Square_Henri-Cadiou/Square_Henri-Cadiou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Henri-Cadiou est un square du 13e arrondissement de Paris
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entrée principale du square est située au 69, boulevard Arago à côté de la Cité fleurie. Il existe également une entrée annexe par la rue Léon-Maurice-Nordmann.
 Le square est desservi à proximité par les lignes 7 à la station Les Gobelins et 6 à la station Glacière.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il rend hommage  au peintre Henri Cadiou (1906-1989), qui vécut de nombreuses années dans la Cité fleurie et permit la préservation du site dans les années 1960[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rend hommage  au peintre Henri Cadiou (1906-1989), qui vécut de nombreuses années dans la Cité fleurie et permit la préservation du site dans les années 1960.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square, anciennement dénommé « jardin Arago », est créé en 1989 à côté de la Cité fleurie, qui constitue un ensemble d'ateliers d'artistes créés dans Paris intra-muros à la fin du XIXe siècle. 
-Le square est prolongé vers le sud avec la création d'un chemin et d'espaces verts le long de l'école maternelle de la rue Léon-Maurice-Nordmann. Une sculpture de l'artiste néerlandais César Domela, qui vécut dans la Cité fleurie dans les années 1930, est présente dans l'enceinte du jardin[1].
+Le square est prolongé vers le sud avec la création d'un chemin et d'espaces verts le long de l'école maternelle de la rue Léon-Maurice-Nordmann. Une sculpture de l'artiste néerlandais César Domela, qui vécut dans la Cité fleurie dans les années 1930, est présente dans l'enceinte du jardin.
 			Vue du square et de la fontaine-sculpture de César Domela.
 			L'espace de jeux.
 </t>
